--- a/test/testCallAmount/callAmountPerformance.xlsx
+++ b/test/testCallAmount/callAmountPerformance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -88,7 +88,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="366">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -141,6 +141,210 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
@@ -992,275 +1196,275 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="299" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="232" t="n">
+      <c r="A2" s="300" t="n">
         <v>5000.0</v>
       </c>
-      <c r="B2" s="233" t="n">
+      <c r="B2" s="301" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="234" t="n">
+      <c r="A3" s="302" t="n">
         <v>10000.0</v>
       </c>
-      <c r="B3" s="235" t="n">
+      <c r="B3" s="303" t="n">
         <v>0.010000000002037268</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="236" t="n">
+      <c r="A4" s="304" t="n">
         <v>15000.0</v>
       </c>
-      <c r="B4" s="237" t="n">
+      <c r="B4" s="305" t="n">
+        <v>0.00999999999839929</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="306" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="B5" s="307" t="n">
+        <v>0.01999999999679858</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="308" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="B6" s="309" t="n">
+        <v>0.049999999999272404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="310" t="n">
+        <v>30000.0</v>
+      </c>
+      <c r="B7" s="311" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="238" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="B5" s="239" t="n">
+    <row r="8">
+      <c r="A8" s="312" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="B8" s="313" t="n">
+        <v>0.030000000002473826</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="314" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="B9" s="315" t="n">
+        <v>0.020000000000436557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="316" t="n">
+        <v>45000.0</v>
+      </c>
+      <c r="B10" s="317" t="n">
+        <v>0.020000000000436557</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="318" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="B11" s="319" t="n">
+        <v>0.020000000000436557</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="320" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="B12" s="321" t="n">
         <v>0.010000000002037268</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="240" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="B6" s="241" t="n">
+    <row r="13">
+      <c r="A13" s="322" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="B13" s="323" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="242" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="B7" s="243" t="n">
+    <row r="14">
+      <c r="A14" s="324" t="n">
+        <v>65000.0</v>
+      </c>
+      <c r="B14" s="325" t="n">
+        <v>0.00999999999839929</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="326" t="n">
+        <v>70000.0</v>
+      </c>
+      <c r="B15" s="327" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="244" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="B8" s="245" t="n">
-        <v>0.010000000002037268</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="246" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="B9" s="247" t="n">
+    <row r="16">
+      <c r="A16" s="328" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="B16" s="329" t="n">
+        <v>0.00999999999839929</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="330" t="n">
+        <v>80000.0</v>
+      </c>
+      <c r="B17" s="331" t="n">
+        <v>0.01999999999679858</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="332" t="n">
+        <v>85000.0</v>
+      </c>
+      <c r="B18" s="333" t="n">
+        <v>0.00999999999839929</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="334" t="n">
+        <v>90000.0</v>
+      </c>
+      <c r="B19" s="335" t="n">
+        <v>0.030000000002473826</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="336" t="n">
+        <v>95000.0</v>
+      </c>
+      <c r="B20" s="337" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="248" t="n">
-        <v>45000.0</v>
-      </c>
-      <c r="B10" s="249" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="250" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="B11" s="251" t="n">
+    <row r="21">
+      <c r="A21" s="338" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="B21" s="339" t="n">
+        <v>0.040000000000873115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="340" t="n">
+        <v>105000.0</v>
+      </c>
+      <c r="B22" s="341" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="342" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="B23" s="343" t="n">
+        <v>0.040000000000873115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="344" t="n">
+        <v>115000.0</v>
+      </c>
+      <c r="B24" s="345" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="346" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="B25" s="347" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="348" t="n">
+        <v>125000.0</v>
+      </c>
+      <c r="B26" s="349" t="n">
+        <v>0.06000000000130967</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="350" t="n">
+        <v>130000.0</v>
+      </c>
+      <c r="B27" s="351" t="n">
+        <v>0.040000000000873115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="352" t="n">
+        <v>135000.0</v>
+      </c>
+      <c r="B28" s="353" t="n">
+        <v>0.030000000002473826</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="354" t="n">
+        <v>140000.0</v>
+      </c>
+      <c r="B29" s="355" t="n">
         <v>0.049999999999272404</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="252" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="B12" s="253" t="n">
-        <v>0.010000000002037268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="254" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="B13" s="255" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="256" t="n">
-        <v>65000.0</v>
-      </c>
-      <c r="B14" s="257" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="258" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="B15" s="259" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="260" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="B16" s="261" t="n">
+    <row r="30">
+      <c r="A30" s="356" t="n">
+        <v>145000.0</v>
+      </c>
+      <c r="B30" s="357" t="n">
+        <v>0.040000000000873115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="358" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="B31" s="359" t="n">
+        <v>0.049999999999272404</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="360" t="n">
+        <v>155000.0</v>
+      </c>
+      <c r="B32" s="361" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="262" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="B17" s="263" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="264" t="n">
-        <v>85000.0</v>
-      </c>
-      <c r="B18" s="265" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="266" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="B19" s="267" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="268" t="n">
-        <v>95000.0</v>
-      </c>
-      <c r="B20" s="269" t="n">
-        <v>0.00999999999839929</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="270" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="B21" s="271" t="n">
+    <row r="33">
+      <c r="A33" s="362" t="n">
+        <v>160000.0</v>
+      </c>
+      <c r="B33" s="363" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="272" t="n">
-        <v>105000.0</v>
-      </c>
-      <c r="B22" s="273" t="n">
+    <row r="34">
+      <c r="A34" s="364" t="n">
+        <v>165000.0</v>
+      </c>
+      <c r="B34" s="365" t="n">
         <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="274" t="n">
-        <v>110000.0</v>
-      </c>
-      <c r="B23" s="275" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="276" t="n">
-        <v>115000.0</v>
-      </c>
-      <c r="B24" s="277" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="278" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="B25" s="279" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="280" t="n">
-        <v>125000.0</v>
-      </c>
-      <c r="B26" s="281" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="282" t="n">
-        <v>130000.0</v>
-      </c>
-      <c r="B27" s="283" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="284" t="n">
-        <v>135000.0</v>
-      </c>
-      <c r="B28" s="285" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="286" t="n">
-        <v>140000.0</v>
-      </c>
-      <c r="B29" s="287" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="288" t="n">
-        <v>145000.0</v>
-      </c>
-      <c r="B30" s="289" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="290" t="n">
-        <v>150000.0</v>
-      </c>
-      <c r="B31" s="291" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="292" t="n">
-        <v>155000.0</v>
-      </c>
-      <c r="B32" s="293" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="294" t="n">
-        <v>160000.0</v>
-      </c>
-      <c r="B33" s="295" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="296" t="n">
-        <v>165000.0</v>
-      </c>
-      <c r="B34" s="297" t="n">
-        <v>0.040000000000873115</v>
       </c>
     </row>
   </sheetData>

--- a/test/testCallAmount/callAmountPerformance.xlsx
+++ b/test/testCallAmount/callAmountPerformance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -88,7 +88,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="434">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -141,6 +141,210 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
@@ -1196,275 +1400,275 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="299" t="s">
+      <c r="B1" s="367" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="300" t="n">
+      <c r="A2" s="368" t="n">
         <v>5000.0</v>
       </c>
-      <c r="B2" s="301" t="n">
+      <c r="B2" s="369" t="n">
+        <v>0.00999999999839929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="370" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="B3" s="371" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="372" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="B4" s="373" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="374" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="B5" s="375" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="376" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="B6" s="377" t="n">
+        <v>0.030000000002473826</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="378" t="n">
+        <v>30000.0</v>
+      </c>
+      <c r="B7" s="379" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="380" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="B8" s="381" t="n">
+        <v>0.010000000002037268</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="382" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="B9" s="383" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="302" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="B3" s="303" t="n">
+    <row r="10">
+      <c r="A10" s="384" t="n">
+        <v>45000.0</v>
+      </c>
+      <c r="B10" s="385" t="n">
+        <v>0.020000000000436557</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="386" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="B11" s="387" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="388" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="B12" s="389" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="390" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="B13" s="391" t="n">
         <v>0.010000000002037268</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="304" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="B4" s="305" t="n">
-        <v>0.00999999999839929</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="306" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="B5" s="307" t="n">
-        <v>0.01999999999679858</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="308" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="B6" s="309" t="n">
+    <row r="14">
+      <c r="A14" s="392" t="n">
+        <v>65000.0</v>
+      </c>
+      <c r="B14" s="393" t="n">
+        <v>0.020000000000436557</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="394" t="n">
+        <v>70000.0</v>
+      </c>
+      <c r="B15" s="395" t="n">
+        <v>0.020000000000436557</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="396" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="B16" s="397" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="398" t="n">
+        <v>80000.0</v>
+      </c>
+      <c r="B17" s="399" t="n">
+        <v>0.030000000002473826</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="400" t="n">
+        <v>85000.0</v>
+      </c>
+      <c r="B18" s="401" t="n">
+        <v>0.040000000000873115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="402" t="n">
+        <v>90000.0</v>
+      </c>
+      <c r="B19" s="403" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="404" t="n">
+        <v>95000.0</v>
+      </c>
+      <c r="B20" s="405" t="n">
+        <v>0.010000000002037268</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="406" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="B21" s="407" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="408" t="n">
+        <v>105000.0</v>
+      </c>
+      <c r="B22" s="409" t="n">
         <v>0.049999999999272404</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="310" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="B7" s="311" t="n">
+    <row r="23">
+      <c r="A23" s="410" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="B23" s="411" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="412" t="n">
+        <v>115000.0</v>
+      </c>
+      <c r="B24" s="413" t="n">
+        <v>0.049999999999272404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="414" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="B25" s="415" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="416" t="n">
+        <v>125000.0</v>
+      </c>
+      <c r="B26" s="417" t="n">
+        <v>0.040000000000873115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="418" t="n">
+        <v>130000.0</v>
+      </c>
+      <c r="B27" s="419" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="312" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="B8" s="313" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="314" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="B9" s="315" t="n">
+    <row r="28">
+      <c r="A28" s="420" t="n">
+        <v>135000.0</v>
+      </c>
+      <c r="B28" s="421" t="n">
+        <v>0.049999999999272404</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="422" t="n">
+        <v>140000.0</v>
+      </c>
+      <c r="B29" s="423" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="424" t="n">
+        <v>145000.0</v>
+      </c>
+      <c r="B30" s="425" t="n">
         <v>0.020000000000436557</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="316" t="n">
-        <v>45000.0</v>
-      </c>
-      <c r="B10" s="317" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="318" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="B11" s="319" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="320" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="B12" s="321" t="n">
-        <v>0.010000000002037268</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="322" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="B13" s="323" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="324" t="n">
-        <v>65000.0</v>
-      </c>
-      <c r="B14" s="325" t="n">
-        <v>0.00999999999839929</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="326" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="B15" s="327" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="328" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="B16" s="329" t="n">
-        <v>0.00999999999839929</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="330" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="B17" s="331" t="n">
-        <v>0.01999999999679858</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="332" t="n">
-        <v>85000.0</v>
-      </c>
-      <c r="B18" s="333" t="n">
-        <v>0.00999999999839929</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="334" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="B19" s="335" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="336" t="n">
-        <v>95000.0</v>
-      </c>
-      <c r="B20" s="337" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="338" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="B21" s="339" t="n">
+    <row r="31">
+      <c r="A31" s="426" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="B31" s="427" t="n">
+        <v>0.049999999999272404</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="428" t="n">
+        <v>155000.0</v>
+      </c>
+      <c r="B32" s="429" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="430" t="n">
+        <v>160000.0</v>
+      </c>
+      <c r="B33" s="431" t="n">
+        <v>0.049999999999272404</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="432" t="n">
+        <v>165000.0</v>
+      </c>
+      <c r="B34" s="433" t="n">
         <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="340" t="n">
-        <v>105000.0</v>
-      </c>
-      <c r="B22" s="341" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="342" t="n">
-        <v>110000.0</v>
-      </c>
-      <c r="B23" s="343" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="344" t="n">
-        <v>115000.0</v>
-      </c>
-      <c r="B24" s="345" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="346" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="B25" s="347" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="348" t="n">
-        <v>125000.0</v>
-      </c>
-      <c r="B26" s="349" t="n">
-        <v>0.06000000000130967</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="350" t="n">
-        <v>130000.0</v>
-      </c>
-      <c r="B27" s="351" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="352" t="n">
-        <v>135000.0</v>
-      </c>
-      <c r="B28" s="353" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="354" t="n">
-        <v>140000.0</v>
-      </c>
-      <c r="B29" s="355" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="356" t="n">
-        <v>145000.0</v>
-      </c>
-      <c r="B30" s="357" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="358" t="n">
-        <v>150000.0</v>
-      </c>
-      <c r="B31" s="359" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="360" t="n">
-        <v>155000.0</v>
-      </c>
-      <c r="B32" s="361" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="362" t="n">
-        <v>160000.0</v>
-      </c>
-      <c r="B33" s="363" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="364" t="n">
-        <v>165000.0</v>
-      </c>
-      <c r="B34" s="365" t="n">
-        <v>0.029999999998835847</v>
       </c>
     </row>
   </sheetData>

--- a/test/testCallAmount/callAmountPerformance.xlsx
+++ b/test/testCallAmount/callAmountPerformance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -88,7 +88,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="434">
+  <cellXfs count="640">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -969,6 +969,624 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
@@ -1400,275 +2018,275 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="572" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="573" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="368" t="n">
+      <c r="A2" s="574" t="n">
         <v>5000.0</v>
       </c>
-      <c r="B2" s="369" t="n">
-        <v>0.00999999999839929</v>
+      <c r="B2" s="575" t="n">
+        <v>0.010000000009313226</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="370" t="n">
+      <c r="A3" s="576" t="n">
         <v>10000.0</v>
       </c>
-      <c r="B3" s="371" t="n">
+      <c r="B3" s="577" t="n">
+        <v>0.009999999980209395</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="578" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="B4" s="579" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="372" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="B4" s="373" t="n">
+    <row r="5">
+      <c r="A5" s="580" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="B5" s="581" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="582" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="B6" s="583" t="n">
+        <v>0.02000000001862645</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="584" t="n">
+        <v>30000.0</v>
+      </c>
+      <c r="B7" s="585" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="586" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="B8" s="587" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="588" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="B9" s="589" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="590" t="n">
+        <v>45000.0</v>
+      </c>
+      <c r="B10" s="591" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="374" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="B5" s="375" t="n">
+    <row r="11">
+      <c r="A11" s="592" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="B11" s="593" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="594" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="B12" s="595" t="n">
+        <v>0.02000000001862645</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="596" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="B13" s="597" t="n">
+        <v>0.009999999980209395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="598" t="n">
+        <v>65000.0</v>
+      </c>
+      <c r="B14" s="599" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="600" t="n">
+        <v>70000.0</v>
+      </c>
+      <c r="B15" s="601" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="376" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="B6" s="377" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="378" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="B7" s="379" t="n">
+    <row r="16">
+      <c r="A16" s="602" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="B16" s="603" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="604" t="n">
+        <v>80000.0</v>
+      </c>
+      <c r="B17" s="605" t="n">
+        <v>0.009999999980209395</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="606" t="n">
+        <v>85000.0</v>
+      </c>
+      <c r="B18" s="607" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="608" t="n">
+        <v>90000.0</v>
+      </c>
+      <c r="B19" s="609" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="380" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="B8" s="381" t="n">
-        <v>0.010000000002037268</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="382" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="B9" s="383" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="384" t="n">
-        <v>45000.0</v>
-      </c>
-      <c r="B10" s="385" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="386" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="B11" s="387" t="n">
+    <row r="20">
+      <c r="A20" s="610" t="n">
+        <v>95000.0</v>
+      </c>
+      <c r="B20" s="611" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="612" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="B21" s="613" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="388" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="B12" s="389" t="n">
+    <row r="22">
+      <c r="A22" s="614" t="n">
+        <v>105000.0</v>
+      </c>
+      <c r="B22" s="615" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="390" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="B13" s="391" t="n">
-        <v>0.010000000002037268</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="392" t="n">
-        <v>65000.0</v>
-      </c>
-      <c r="B14" s="393" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="394" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="B15" s="395" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="396" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="B16" s="397" t="n">
+    <row r="23">
+      <c r="A23" s="616" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="B23" s="617" t="n">
+        <v>0.04999999998835847</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="618" t="n">
+        <v>115000.0</v>
+      </c>
+      <c r="B24" s="619" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="398" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="B17" s="399" t="n">
-        <v>0.030000000002473826</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="400" t="n">
-        <v>85000.0</v>
-      </c>
-      <c r="B18" s="401" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="402" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="B19" s="403" t="n">
+    <row r="25">
+      <c r="A25" s="620" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="B25" s="621" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="404" t="n">
-        <v>95000.0</v>
-      </c>
-      <c r="B20" s="405" t="n">
-        <v>0.010000000002037268</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="406" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="B21" s="407" t="n">
+    <row r="26">
+      <c r="A26" s="622" t="n">
+        <v>125000.0</v>
+      </c>
+      <c r="B26" s="623" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="408" t="n">
-        <v>105000.0</v>
-      </c>
-      <c r="B22" s="409" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="410" t="n">
-        <v>110000.0</v>
-      </c>
-      <c r="B23" s="411" t="n">
+    <row r="27">
+      <c r="A27" s="624" t="n">
+        <v>130000.0</v>
+      </c>
+      <c r="B27" s="625" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="412" t="n">
-        <v>115000.0</v>
-      </c>
-      <c r="B24" s="413" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="414" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="B25" s="415" t="n">
+    <row r="28">
+      <c r="A28" s="626" t="n">
+        <v>135000.0</v>
+      </c>
+      <c r="B28" s="627" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="416" t="n">
-        <v>125000.0</v>
-      </c>
-      <c r="B26" s="417" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="418" t="n">
-        <v>130000.0</v>
-      </c>
-      <c r="B27" s="419" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="420" t="n">
-        <v>135000.0</v>
-      </c>
-      <c r="B28" s="421" t="n">
-        <v>0.049999999999272404</v>
-      </c>
-    </row>
     <row r="29">
-      <c r="A29" s="422" t="n">
+      <c r="A29" s="628" t="n">
         <v>140000.0</v>
       </c>
-      <c r="B29" s="423" t="n">
+      <c r="B29" s="629" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="424" t="n">
+      <c r="A30" s="630" t="n">
         <v>145000.0</v>
       </c>
-      <c r="B30" s="425" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B30" s="631" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="426" t="n">
+      <c r="A31" s="632" t="n">
         <v>150000.0</v>
       </c>
-      <c r="B31" s="427" t="n">
-        <v>0.049999999999272404</v>
+      <c r="B31" s="633" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="428" t="n">
+      <c r="A32" s="634" t="n">
         <v>155000.0</v>
       </c>
-      <c r="B32" s="429" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B32" s="635" t="n">
+        <v>0.09999999997671694</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="430" t="n">
+      <c r="A33" s="636" t="n">
         <v>160000.0</v>
       </c>
-      <c r="B33" s="431" t="n">
-        <v>0.049999999999272404</v>
+      <c r="B33" s="637" t="n">
+        <v>0.059999999997671694</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="432" t="n">
+      <c r="A34" s="638" t="n">
         <v>165000.0</v>
       </c>
-      <c r="B34" s="433" t="n">
-        <v>0.040000000000873115</v>
+      <c r="B34" s="639" t="n">
+        <v>0.0500000000174623</v>
       </c>
     </row>
   </sheetData>

--- a/test/testCallAmount/callAmountPerformance.xlsx
+++ b/test/testCallAmount/callAmountPerformance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -88,7 +88,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="640">
+  <cellXfs count="828">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -1719,6 +1719,570 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
@@ -2018,274 +2582,274 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="572" t="s">
+      <c r="A1" s="760" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="573" t="s">
+      <c r="B1" s="761" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="574" t="n">
+      <c r="A2" s="762" t="n">
         <v>5000.0</v>
       </c>
-      <c r="B2" s="575" t="n">
+      <c r="B2" s="763" t="n">
+        <v>0.02000000001862645</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="764" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="B3" s="765" t="n">
         <v>0.010000000009313226</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="576" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="B3" s="577" t="n">
+    <row r="4">
+      <c r="A4" s="766" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="B4" s="767" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="768" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="B5" s="769" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="770" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="B6" s="771" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="772" t="n">
+        <v>30000.0</v>
+      </c>
+      <c r="B7" s="773" t="n">
+        <v>0.02000000001862645</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="774" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="B8" s="775" t="n">
+        <v>0.02000000001862645</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="776" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="B9" s="777" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="778" t="n">
+        <v>45000.0</v>
+      </c>
+      <c r="B10" s="779" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="780" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="B11" s="781" t="n">
         <v>0.009999999980209395</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="578" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="B4" s="579" t="n">
+    <row r="12">
+      <c r="A12" s="782" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="B12" s="783" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="784" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="B13" s="785" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="786" t="n">
+        <v>65000.0</v>
+      </c>
+      <c r="B14" s="787" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="580" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="B5" s="581" t="n">
+    <row r="15">
+      <c r="A15" s="788" t="n">
+        <v>70000.0</v>
+      </c>
+      <c r="B15" s="789" t="n">
+        <v>0.029999999998835847</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="790" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="B16" s="791" t="n">
         <v>0.01999999998952262</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="582" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="B6" s="583" t="n">
+    <row r="17">
+      <c r="A17" s="792" t="n">
+        <v>80000.0</v>
+      </c>
+      <c r="B17" s="793" t="n">
+        <v>0.009999999980209395</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="794" t="n">
+        <v>85000.0</v>
+      </c>
+      <c r="B18" s="795" t="n">
         <v>0.02000000001862645</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="584" t="n">
-        <v>30000.0</v>
-      </c>
-      <c r="B7" s="585" t="n">
-        <v>0.01999999998952262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="586" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="B8" s="587" t="n">
-        <v>0.010000000009313226</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="588" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="B9" s="589" t="n">
-        <v>0.010000000009313226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="590" t="n">
-        <v>45000.0</v>
-      </c>
-      <c r="B10" s="591" t="n">
+    <row r="19">
+      <c r="A19" s="796" t="n">
+        <v>90000.0</v>
+      </c>
+      <c r="B19" s="797" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="592" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="B11" s="593" t="n">
-        <v>0.010000000009313226</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="594" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="B12" s="595" t="n">
+    <row r="20">
+      <c r="A20" s="798" t="n">
+        <v>95000.0</v>
+      </c>
+      <c r="B20" s="799" t="n">
         <v>0.02000000001862645</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="596" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="B13" s="597" t="n">
-        <v>0.009999999980209395</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="598" t="n">
-        <v>65000.0</v>
-      </c>
-      <c r="B14" s="599" t="n">
-        <v>0.01999999998952262</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="600" t="n">
-        <v>70000.0</v>
-      </c>
-      <c r="B15" s="601" t="n">
+    <row r="21">
+      <c r="A21" s="800" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="B21" s="801" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="602" t="n">
-        <v>75000.0</v>
-      </c>
-      <c r="B16" s="603" t="n">
-        <v>0.010000000009313226</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="604" t="n">
-        <v>80000.0</v>
-      </c>
-      <c r="B17" s="605" t="n">
-        <v>0.009999999980209395</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="606" t="n">
-        <v>85000.0</v>
-      </c>
-      <c r="B18" s="607" t="n">
-        <v>0.01999999998952262</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="608" t="n">
-        <v>90000.0</v>
-      </c>
-      <c r="B19" s="609" t="n">
+    <row r="22">
+      <c r="A22" s="802" t="n">
+        <v>105000.0</v>
+      </c>
+      <c r="B22" s="803" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="610" t="n">
-        <v>95000.0</v>
-      </c>
-      <c r="B20" s="611" t="n">
-        <v>0.01999999998952262</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="612" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="B21" s="613" t="n">
+    <row r="23">
+      <c r="A23" s="804" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="B23" s="805" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="614" t="n">
-        <v>105000.0</v>
-      </c>
-      <c r="B22" s="615" t="n">
+    <row r="24">
+      <c r="A24" s="806" t="n">
+        <v>115000.0</v>
+      </c>
+      <c r="B24" s="807" t="n">
+        <v>0.02000000001862645</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="808" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="B25" s="809" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="616" t="n">
-        <v>110000.0</v>
-      </c>
-      <c r="B23" s="617" t="n">
+    <row r="26">
+      <c r="A26" s="810" t="n">
+        <v>125000.0</v>
+      </c>
+      <c r="B26" s="811" t="n">
+        <v>0.0500000000174623</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="812" t="n">
+        <v>130000.0</v>
+      </c>
+      <c r="B27" s="813" t="n">
         <v>0.04999999998835847</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="618" t="n">
-        <v>115000.0</v>
-      </c>
-      <c r="B24" s="619" t="n">
+    <row r="28">
+      <c r="A28" s="814" t="n">
+        <v>135000.0</v>
+      </c>
+      <c r="B28" s="815" t="n">
+        <v>0.04999999998835847</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="816" t="n">
+        <v>140000.0</v>
+      </c>
+      <c r="B29" s="817" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="620" t="n">
-        <v>120000.0</v>
-      </c>
-      <c r="B25" s="621" t="n">
+    <row r="30">
+      <c r="A30" s="818" t="n">
+        <v>145000.0</v>
+      </c>
+      <c r="B30" s="819" t="n">
+        <v>0.04000000000814907</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="820" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="B31" s="821" t="n">
+        <v>0.0500000000174623</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="822" t="n">
+        <v>155000.0</v>
+      </c>
+      <c r="B32" s="823" t="n">
+        <v>0.04000000000814907</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="824" t="n">
+        <v>160000.0</v>
+      </c>
+      <c r="B33" s="825" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="622" t="n">
-        <v>125000.0</v>
-      </c>
-      <c r="B26" s="623" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="624" t="n">
-        <v>130000.0</v>
-      </c>
-      <c r="B27" s="625" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="626" t="n">
-        <v>135000.0</v>
-      </c>
-      <c r="B28" s="627" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="628" t="n">
-        <v>140000.0</v>
-      </c>
-      <c r="B29" s="629" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="630" t="n">
-        <v>145000.0</v>
-      </c>
-      <c r="B30" s="631" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="632" t="n">
-        <v>150000.0</v>
-      </c>
-      <c r="B31" s="633" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="634" t="n">
-        <v>155000.0</v>
-      </c>
-      <c r="B32" s="635" t="n">
-        <v>0.09999999997671694</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="636" t="n">
-        <v>160000.0</v>
-      </c>
-      <c r="B33" s="637" t="n">
-        <v>0.059999999997671694</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="638" t="n">
+      <c r="A34" s="826" t="n">
         <v>165000.0</v>
       </c>
-      <c r="B34" s="639" t="n">
+      <c r="B34" s="827" t="n">
         <v>0.0500000000174623</v>
       </c>
     </row>

--- a/test/testCallAmount/callAmountPerformance.xlsx
+++ b/test/testCallAmount/callAmountPerformance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -88,7 +88,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="828">
+  <cellXfs count="1100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -2283,6 +2283,822 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
@@ -2582,275 +3398,275 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="760" t="s">
+      <c r="A1" s="1032" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="761" t="s">
+      <c r="B1" s="1033" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="762" t="n">
+      <c r="A2" s="1034" t="n">
         <v>5000.0</v>
       </c>
-      <c r="B2" s="763" t="n">
-        <v>0.02000000001862645</v>
+      <c r="B2" s="1035" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="764" t="n">
+      <c r="A3" s="1036" t="n">
         <v>10000.0</v>
       </c>
-      <c r="B3" s="765" t="n">
-        <v>0.010000000009313226</v>
+      <c r="B3" s="1037" t="n">
+        <v>0.010000000000218279</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="766" t="n">
+      <c r="A4" s="1038" t="n">
         <v>15000.0</v>
       </c>
-      <c r="B4" s="767" t="n">
-        <v>0.01999999998952262</v>
+      <c r="B4" s="1039" t="n">
+        <v>0.00999999999839929</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="768" t="n">
+      <c r="A5" s="1040" t="n">
         <v>20000.0</v>
       </c>
-      <c r="B5" s="769" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B5" s="1041" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="770" t="n">
+      <c r="A6" s="1042" t="n">
         <v>25000.0</v>
       </c>
-      <c r="B6" s="771" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B6" s="1043" t="n">
+        <v>0.010000000000218279</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="772" t="n">
+      <c r="A7" s="1044" t="n">
         <v>30000.0</v>
       </c>
-      <c r="B7" s="773" t="n">
-        <v>0.02000000001862645</v>
+      <c r="B7" s="1045" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="774" t="n">
+      <c r="A8" s="1046" t="n">
         <v>35000.0</v>
       </c>
-      <c r="B8" s="775" t="n">
-        <v>0.02000000001862645</v>
+      <c r="B8" s="1047" t="n">
+        <v>0.040000000000873115</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="776" t="n">
+      <c r="A9" s="1048" t="n">
         <v>40000.0</v>
       </c>
-      <c r="B9" s="777" t="n">
-        <v>0.01999999998952262</v>
+      <c r="B9" s="1049" t="n">
+        <v>0.010000000000218279</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="778" t="n">
+      <c r="A10" s="1050" t="n">
         <v>45000.0</v>
       </c>
-      <c r="B10" s="779" t="n">
-        <v>0.010000000009313226</v>
+      <c r="B10" s="1051" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="780" t="n">
+      <c r="A11" s="1052" t="n">
         <v>50000.0</v>
       </c>
-      <c r="B11" s="781" t="n">
-        <v>0.009999999980209395</v>
+      <c r="B11" s="1053" t="n">
+        <v>0.00999999999839929</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="782" t="n">
+      <c r="A12" s="1054" t="n">
         <v>55000.0</v>
       </c>
-      <c r="B12" s="783" t="n">
-        <v>0.010000000009313226</v>
+      <c r="B12" s="1055" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="784" t="n">
+      <c r="A13" s="1056" t="n">
         <v>60000.0</v>
       </c>
-      <c r="B13" s="785" t="n">
-        <v>0.01999999998952262</v>
+      <c r="B13" s="1057" t="n">
+        <v>0.010000000000218279</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="786" t="n">
+      <c r="A14" s="1058" t="n">
         <v>65000.0</v>
       </c>
-      <c r="B14" s="787" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B14" s="1059" t="n">
+        <v>0.010000000000218279</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="788" t="n">
+      <c r="A15" s="1060" t="n">
         <v>70000.0</v>
       </c>
-      <c r="B15" s="789" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B15" s="1061" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="790" t="n">
+      <c r="A16" s="1062" t="n">
         <v>75000.0</v>
       </c>
-      <c r="B16" s="791" t="n">
-        <v>0.01999999998952262</v>
+      <c r="B16" s="1063" t="n">
+        <v>0.010000000000218279</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="792" t="n">
+      <c r="A17" s="1064" t="n">
         <v>80000.0</v>
       </c>
-      <c r="B17" s="793" t="n">
-        <v>0.009999999980209395</v>
+      <c r="B17" s="1065" t="n">
+        <v>0.019999999998617568</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="794" t="n">
+      <c r="A18" s="1066" t="n">
         <v>85000.0</v>
       </c>
-      <c r="B18" s="795" t="n">
-        <v>0.02000000001862645</v>
+      <c r="B18" s="1067" t="n">
+        <v>0.00999999999839929</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="796" t="n">
+      <c r="A19" s="1068" t="n">
         <v>90000.0</v>
       </c>
-      <c r="B19" s="797" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B19" s="1069" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="798" t="n">
+      <c r="A20" s="1070" t="n">
         <v>95000.0</v>
       </c>
-      <c r="B20" s="799" t="n">
-        <v>0.02000000001862645</v>
+      <c r="B20" s="1071" t="n">
+        <v>0.020000000000436557</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="800" t="n">
+      <c r="A21" s="1072" t="n">
         <v>100000.0</v>
       </c>
-      <c r="B21" s="801" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B21" s="1073" t="n">
+        <v>0.030000000000654836</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="802" t="n">
+      <c r="A22" s="1074" t="n">
         <v>105000.0</v>
       </c>
-      <c r="B22" s="803" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B22" s="1075" t="n">
+        <v>0.030000000000654836</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="804" t="n">
+      <c r="A23" s="1076" t="n">
         <v>110000.0</v>
       </c>
-      <c r="B23" s="805" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B23" s="1077" t="n">
+        <v>0.039999999999054126</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="806" t="n">
+      <c r="A24" s="1078" t="n">
         <v>115000.0</v>
       </c>
-      <c r="B24" s="807" t="n">
-        <v>0.02000000001862645</v>
+      <c r="B24" s="1079" t="n">
+        <v>0.049999999999272404</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="808" t="n">
+      <c r="A25" s="1080" t="n">
         <v>120000.0</v>
       </c>
-      <c r="B25" s="809" t="n">
+      <c r="B25" s="1081" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="810" t="n">
+      <c r="A26" s="1082" t="n">
         <v>125000.0</v>
       </c>
-      <c r="B26" s="811" t="n">
-        <v>0.0500000000174623</v>
+      <c r="B26" s="1083" t="n">
+        <v>0.039999999999054126</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="812" t="n">
+      <c r="A27" s="1084" t="n">
         <v>130000.0</v>
       </c>
-      <c r="B27" s="813" t="n">
-        <v>0.04999999998835847</v>
+      <c r="B27" s="1085" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="814" t="n">
+      <c r="A28" s="1086" t="n">
         <v>135000.0</v>
       </c>
-      <c r="B28" s="815" t="n">
-        <v>0.04999999998835847</v>
+      <c r="B28" s="1087" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="816" t="n">
+      <c r="A29" s="1088" t="n">
         <v>140000.0</v>
       </c>
-      <c r="B29" s="817" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B29" s="1089" t="n">
+        <v>0.040000000000873115</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="818" t="n">
+      <c r="A30" s="1090" t="n">
         <v>145000.0</v>
       </c>
-      <c r="B30" s="819" t="n">
-        <v>0.04000000000814907</v>
+      <c r="B30" s="1091" t="n">
+        <v>0.07999999999992724</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="820" t="n">
+      <c r="A31" s="1092" t="n">
         <v>150000.0</v>
       </c>
-      <c r="B31" s="821" t="n">
-        <v>0.0500000000174623</v>
+      <c r="B31" s="1093" t="n">
+        <v>0.039999999999054126</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="822" t="n">
+      <c r="A32" s="1094" t="n">
         <v>155000.0</v>
       </c>
-      <c r="B32" s="823" t="n">
-        <v>0.04000000000814907</v>
+      <c r="B32" s="1095" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="824" t="n">
+      <c r="A33" s="1096" t="n">
         <v>160000.0</v>
       </c>
-      <c r="B33" s="825" t="n">
-        <v>0.029999999998835847</v>
+      <c r="B33" s="1097" t="n">
+        <v>0.030000000000654836</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="826" t="n">
+      <c r="A34" s="1098" t="n">
         <v>165000.0</v>
       </c>
-      <c r="B34" s="827" t="n">
-        <v>0.0500000000174623</v>
+      <c r="B34" s="1099" t="n">
+        <v>0.030000000000654836</v>
       </c>
     </row>
   </sheetData>

--- a/test/testCallAmount/callAmountPerformance.xlsx
+++ b/test/testCallAmount/callAmountPerformance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
@@ -88,7 +88,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1100">
+  <cellXfs count="828">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
@@ -2283,822 +2283,6 @@
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
       <alignment wrapText="true"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3">
@@ -3398,275 +2582,275 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1032" t="s">
+      <c r="A1" s="760" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1033" t="s">
+      <c r="B1" s="761" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1034" t="n">
+      <c r="A2" s="762" t="n">
         <v>5000.0</v>
       </c>
-      <c r="B2" s="1035" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B2" s="763" t="n">
+        <v>0.02000000001862645</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1036" t="n">
+      <c r="A3" s="764" t="n">
         <v>10000.0</v>
       </c>
-      <c r="B3" s="1037" t="n">
-        <v>0.010000000000218279</v>
+      <c r="B3" s="765" t="n">
+        <v>0.010000000009313226</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1038" t="n">
+      <c r="A4" s="766" t="n">
         <v>15000.0</v>
       </c>
-      <c r="B4" s="1039" t="n">
-        <v>0.00999999999839929</v>
+      <c r="B4" s="767" t="n">
+        <v>0.01999999998952262</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1040" t="n">
+      <c r="A5" s="768" t="n">
         <v>20000.0</v>
       </c>
-      <c r="B5" s="1041" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B5" s="769" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1042" t="n">
+      <c r="A6" s="770" t="n">
         <v>25000.0</v>
       </c>
-      <c r="B6" s="1043" t="n">
-        <v>0.010000000000218279</v>
+      <c r="B6" s="771" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1044" t="n">
+      <c r="A7" s="772" t="n">
         <v>30000.0</v>
       </c>
-      <c r="B7" s="1045" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B7" s="773" t="n">
+        <v>0.02000000001862645</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1046" t="n">
+      <c r="A8" s="774" t="n">
         <v>35000.0</v>
       </c>
-      <c r="B8" s="1047" t="n">
-        <v>0.040000000000873115</v>
+      <c r="B8" s="775" t="n">
+        <v>0.02000000001862645</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1048" t="n">
+      <c r="A9" s="776" t="n">
         <v>40000.0</v>
       </c>
-      <c r="B9" s="1049" t="n">
-        <v>0.010000000000218279</v>
+      <c r="B9" s="777" t="n">
+        <v>0.01999999998952262</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1050" t="n">
+      <c r="A10" s="778" t="n">
         <v>45000.0</v>
       </c>
-      <c r="B10" s="1051" t="n">
+      <c r="B10" s="779" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="780" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="B11" s="781" t="n">
+        <v>0.009999999980209395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="782" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="B12" s="783" t="n">
+        <v>0.010000000009313226</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="784" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="B13" s="785" t="n">
+        <v>0.01999999998952262</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="786" t="n">
+        <v>65000.0</v>
+      </c>
+      <c r="B14" s="787" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1052" t="n">
-        <v>50000.0</v>
-      </c>
-      <c r="B11" s="1053" t="n">
-        <v>0.00999999999839929</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1054" t="n">
-        <v>55000.0</v>
-      </c>
-      <c r="B12" s="1055" t="n">
-        <v>0.020000000000436557</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1056" t="n">
-        <v>60000.0</v>
-      </c>
-      <c r="B13" s="1057" t="n">
-        <v>0.010000000000218279</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1058" t="n">
-        <v>65000.0</v>
-      </c>
-      <c r="B14" s="1059" t="n">
-        <v>0.010000000000218279</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="1060" t="n">
+      <c r="A15" s="788" t="n">
         <v>70000.0</v>
       </c>
-      <c r="B15" s="1061" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B15" s="789" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1062" t="n">
+      <c r="A16" s="790" t="n">
         <v>75000.0</v>
       </c>
-      <c r="B16" s="1063" t="n">
-        <v>0.010000000000218279</v>
+      <c r="B16" s="791" t="n">
+        <v>0.01999999998952262</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1064" t="n">
+      <c r="A17" s="792" t="n">
         <v>80000.0</v>
       </c>
-      <c r="B17" s="1065" t="n">
-        <v>0.019999999998617568</v>
+      <c r="B17" s="793" t="n">
+        <v>0.009999999980209395</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1066" t="n">
+      <c r="A18" s="794" t="n">
         <v>85000.0</v>
       </c>
-      <c r="B18" s="1067" t="n">
-        <v>0.00999999999839929</v>
+      <c r="B18" s="795" t="n">
+        <v>0.02000000001862645</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1068" t="n">
+      <c r="A19" s="796" t="n">
         <v>90000.0</v>
       </c>
-      <c r="B19" s="1069" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B19" s="797" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1070" t="n">
+      <c r="A20" s="798" t="n">
         <v>95000.0</v>
       </c>
-      <c r="B20" s="1071" t="n">
-        <v>0.020000000000436557</v>
+      <c r="B20" s="799" t="n">
+        <v>0.02000000001862645</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1072" t="n">
+      <c r="A21" s="800" t="n">
         <v>100000.0</v>
       </c>
-      <c r="B21" s="1073" t="n">
-        <v>0.030000000000654836</v>
+      <c r="B21" s="801" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1074" t="n">
+      <c r="A22" s="802" t="n">
         <v>105000.0</v>
       </c>
-      <c r="B22" s="1075" t="n">
-        <v>0.030000000000654836</v>
+      <c r="B22" s="803" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1076" t="n">
+      <c r="A23" s="804" t="n">
         <v>110000.0</v>
       </c>
-      <c r="B23" s="1077" t="n">
-        <v>0.039999999999054126</v>
+      <c r="B23" s="805" t="n">
+        <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1078" t="n">
+      <c r="A24" s="806" t="n">
         <v>115000.0</v>
       </c>
-      <c r="B24" s="1079" t="n">
-        <v>0.049999999999272404</v>
+      <c r="B24" s="807" t="n">
+        <v>0.02000000001862645</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1080" t="n">
+      <c r="A25" s="808" t="n">
         <v>120000.0</v>
       </c>
-      <c r="B25" s="1081" t="n">
+      <c r="B25" s="809" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1082" t="n">
+      <c r="A26" s="810" t="n">
         <v>125000.0</v>
       </c>
-      <c r="B26" s="1083" t="n">
-        <v>0.039999999999054126</v>
+      <c r="B26" s="811" t="n">
+        <v>0.0500000000174623</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1084" t="n">
+      <c r="A27" s="812" t="n">
         <v>130000.0</v>
       </c>
-      <c r="B27" s="1085" t="n">
+      <c r="B27" s="813" t="n">
+        <v>0.04999999998835847</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="814" t="n">
+        <v>135000.0</v>
+      </c>
+      <c r="B28" s="815" t="n">
+        <v>0.04999999998835847</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="816" t="n">
+        <v>140000.0</v>
+      </c>
+      <c r="B29" s="817" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1086" t="n">
-        <v>135000.0</v>
-      </c>
-      <c r="B28" s="1087" t="n">
+    <row r="30">
+      <c r="A30" s="818" t="n">
+        <v>145000.0</v>
+      </c>
+      <c r="B30" s="819" t="n">
+        <v>0.04000000000814907</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="820" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="B31" s="821" t="n">
+        <v>0.0500000000174623</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="822" t="n">
+        <v>155000.0</v>
+      </c>
+      <c r="B32" s="823" t="n">
+        <v>0.04000000000814907</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="824" t="n">
+        <v>160000.0</v>
+      </c>
+      <c r="B33" s="825" t="n">
         <v>0.029999999998835847</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1088" t="n">
-        <v>140000.0</v>
-      </c>
-      <c r="B29" s="1089" t="n">
-        <v>0.040000000000873115</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1090" t="n">
-        <v>145000.0</v>
-      </c>
-      <c r="B30" s="1091" t="n">
-        <v>0.07999999999992724</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1092" t="n">
-        <v>150000.0</v>
-      </c>
-      <c r="B31" s="1093" t="n">
-        <v>0.039999999999054126</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1094" t="n">
-        <v>155000.0</v>
-      </c>
-      <c r="B32" s="1095" t="n">
-        <v>0.029999999998835847</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1096" t="n">
-        <v>160000.0</v>
-      </c>
-      <c r="B33" s="1097" t="n">
-        <v>0.030000000000654836</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="1098" t="n">
+      <c r="A34" s="826" t="n">
         <v>165000.0</v>
       </c>
-      <c r="B34" s="1099" t="n">
-        <v>0.030000000000654836</v>
+      <c r="B34" s="827" t="n">
+        <v>0.0500000000174623</v>
       </c>
     </row>
   </sheetData>
